--- a/data/trans_orig/Q17F_D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E6D2FB-742A-4547-8A44-37C7EF1FE234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{730FE585-659C-49B0-BF05-10D6F59A9349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBCB5BA0-6A50-4665-BD7B-D7310A2588C2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1182918C-2423-427F-98F0-07BC09E6239B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="802">
   <si>
     <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2007 (Tasa respuesta: 23,85%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Cuartil IV</t>
@@ -77,10 +77,10 @@
     <t>15,35%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>3,76%</t>
@@ -89,2305 +89,2353 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>13,36%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>Cuartil III</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>Cuartil II</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>Cuartil I</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2012 (Tasa respuesta: 26,39%)</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2016 (Tasa respuesta: 27,46%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>Cuartil III</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>Cuartil II</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>Cuartil I</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2023 (Tasa respuesta: 22,27%)</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2012 (Tasa respuesta: 26,39%)</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>25,52%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2015 (Tasa respuesta: 27,46%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2023 (Tasa respuesta: 22,27%)</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
   </si>
   <si>
     <t>25,26%</t>
@@ -2808,7 +2856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E729EC-6E58-4409-AE3A-37DB699FF2DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA71CC4-D622-4D7E-A560-0856F3E4AEA8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3306,13 +3354,13 @@
         <v>24001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -3321,13 +3369,13 @@
         <v>33643</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,10 +3805,10 @@
         <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -3769,13 +3817,13 @@
         <v>31150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -3784,13 +3832,13 @@
         <v>54414</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3853,13 @@
         <v>21555</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -3820,13 +3868,13 @@
         <v>27390</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -3835,13 +3883,13 @@
         <v>48944</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3904,13 @@
         <v>58411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -3871,13 +3919,13 @@
         <v>102469</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>159</v>
@@ -3886,13 +3934,13 @@
         <v>160880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3996,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3960,13 +4008,13 @@
         <v>32184</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -3975,13 +4023,13 @@
         <v>49658</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -3990,13 +4038,13 @@
         <v>81843</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4059,13 @@
         <v>27990</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -4026,13 +4074,13 @@
         <v>37667</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -4041,13 +4089,13 @@
         <v>65658</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4110,13 @@
         <v>26243</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -4077,13 +4125,13 @@
         <v>49958</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -4092,13 +4140,13 @@
         <v>76201</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4161,13 @@
         <v>97438</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>160</v>
@@ -4128,13 +4176,13 @@
         <v>167337</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>268</v>
@@ -4143,13 +4191,13 @@
         <v>264775</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,16 +4262,16 @@
         <v>103</v>
       </c>
       <c r="D29" s="7">
-        <v>100901</v>
+        <v>100900</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>135</v>
@@ -4232,13 +4280,13 @@
         <v>141973</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>238</v>
@@ -4247,13 +4295,13 @@
         <v>242873</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4316,13 @@
         <v>81928</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>130</v>
@@ -4283,13 +4331,13 @@
         <v>131866</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
@@ -4298,13 +4346,13 @@
         <v>213794</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4367,13 @@
         <v>84634</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>147</v>
@@ -4334,13 +4382,13 @@
         <v>150842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="M31" s="7">
         <v>229</v>
@@ -4349,13 +4397,13 @@
         <v>235476</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4418,13 @@
         <v>337621</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>533</v>
@@ -4385,13 +4433,13 @@
         <v>543602</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>873</v>
@@ -4400,13 +4448,13 @@
         <v>881223</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,7 +4466,7 @@
         <v>608</v>
       </c>
       <c r="D33" s="7">
-        <v>605084</v>
+        <v>605083</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>47</v>
@@ -4462,7 +4510,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B9102-86B4-4A61-9EE3-E18C21FE752A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D9C1E2-C40E-4858-B0D9-7BD1EABA594E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4500,7 +4548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4607,13 +4655,13 @@
         <v>4926</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4622,13 +4670,13 @@
         <v>4394</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4637,13 +4685,13 @@
         <v>9320</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,7 +4706,7 @@
         <v>2728</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
@@ -4715,7 +4763,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4727,10 +4775,10 @@
         <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4739,13 +4787,13 @@
         <v>822</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4808,13 @@
         <v>18513</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4775,13 +4823,13 @@
         <v>27097</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4790,13 +4838,13 @@
         <v>45609</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4912,13 @@
         <v>19347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -4879,13 +4927,13 @@
         <v>20633</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -4894,13 +4942,13 @@
         <v>39980</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4963,13 @@
         <v>10069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4930,13 +4978,13 @@
         <v>13110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4945,13 +4993,13 @@
         <v>23179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +5014,13 @@
         <v>16583</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -4981,13 +5029,13 @@
         <v>13292</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -4996,13 +5044,13 @@
         <v>29875</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5065,13 @@
         <v>102780</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
         <v>132</v>
@@ -5032,13 +5080,13 @@
         <v>139966</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>224</v>
@@ -5047,13 +5095,13 @@
         <v>242746</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5169,13 @@
         <v>34570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5136,13 +5184,13 @@
         <v>46165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5151,13 +5199,13 @@
         <v>80735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5220,13 @@
         <v>39394</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -5187,13 +5235,13 @@
         <v>72008</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M15" s="7">
         <v>99</v>
@@ -5202,13 +5250,13 @@
         <v>111402</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5271,13 @@
         <v>29219</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -5238,13 +5286,13 @@
         <v>44948</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5253,13 +5301,13 @@
         <v>74167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5322,13 @@
         <v>119019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>172</v>
@@ -5289,13 +5337,13 @@
         <v>185269</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>280</v>
@@ -5304,13 +5352,13 @@
         <v>304288</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5426,13 @@
         <v>25755</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -5393,13 +5441,13 @@
         <v>31053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>29</v>
+        <v>334</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -5408,13 +5456,13 @@
         <v>56808</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5477,13 @@
         <v>23808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -5444,13 +5492,13 @@
         <v>56233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -5459,13 +5507,13 @@
         <v>80041</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5528,13 @@
         <v>27013</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>171</v>
+        <v>348</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -5495,13 +5543,13 @@
         <v>40993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -5510,13 +5558,13 @@
         <v>68005</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5579,13 @@
         <v>87747</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -5546,13 +5594,13 @@
         <v>82914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>155</v>
@@ -5561,13 +5609,13 @@
         <v>170660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,7 +5671,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5635,13 +5683,13 @@
         <v>23821</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -5650,13 +5698,13 @@
         <v>48733</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>203</v>
+        <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -5665,13 +5713,13 @@
         <v>72554</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5734,13 @@
         <v>28970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5701,13 +5749,13 @@
         <v>47350</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -5716,13 +5764,13 @@
         <v>76320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5785,13 @@
         <v>23924</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -5752,13 +5800,13 @@
         <v>40361</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
@@ -5767,13 +5815,13 @@
         <v>64286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5836,13 @@
         <v>106967</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H27" s="7">
         <v>176</v>
@@ -5803,13 +5851,13 @@
         <v>189359</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>395</v>
       </c>
       <c r="M27" s="7">
         <v>279</v>
@@ -5818,13 +5866,13 @@
         <v>296326</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5940,13 @@
         <v>108419</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="H29" s="7">
         <v>144</v>
@@ -5907,13 +5955,13 @@
         <v>150978</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>389</v>
+        <v>126</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="M29" s="7">
         <v>245</v>
@@ -5922,13 +5970,13 @@
         <v>259397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5991,13 @@
         <v>104969</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>393</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>176</v>
@@ -5958,13 +6006,13 @@
         <v>192928</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="M30" s="7">
         <v>270</v>
@@ -5973,13 +6021,13 @@
         <v>297896</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6042,13 @@
         <v>97561</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>89</v>
+        <v>331</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H31" s="7">
         <v>131</v>
@@ -6009,13 +6057,13 @@
         <v>139594</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="M31" s="7">
         <v>221</v>
@@ -6024,13 +6072,13 @@
         <v>237154</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6093,13 @@
         <v>435026</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="H32" s="7">
         <v>582</v>
@@ -6060,13 +6108,13 @@
         <v>624605</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="M32" s="7">
         <v>981</v>
@@ -6075,13 +6123,13 @@
         <v>1059630</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,7 +6185,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6158,7 +6206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB15D773-A3FF-4C97-BC97-C5CCEAF44334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70862BD6-E1CA-4631-B10F-DD6677E21B76}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6175,7 +6223,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6282,13 +6330,13 @@
         <v>2686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6297,13 +6345,13 @@
         <v>3433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6312,13 +6360,13 @@
         <v>6119</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6381,13 @@
         <v>2797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6348,13 +6396,13 @@
         <v>3436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6363,13 +6411,13 @@
         <v>6233</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6432,13 @@
         <v>1791</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6399,13 +6447,13 @@
         <v>1667</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6414,13 +6462,13 @@
         <v>3457</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6483,13 @@
         <v>30256</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -6450,13 +6498,13 @@
         <v>25520</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>382</v>
+        <v>454</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -6465,13 +6513,13 @@
         <v>55775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6587,13 @@
         <v>20896</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -6554,13 +6602,13 @@
         <v>31003</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>462</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="M9" s="7">
         <v>50</v>
@@ -6569,13 +6617,13 @@
         <v>51899</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>270</v>
+        <v>465</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>454</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6638,13 @@
         <v>20630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -6605,13 +6653,13 @@
         <v>27146</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>470</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -6620,13 +6668,13 @@
         <v>47776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>460</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6689,13 @@
         <v>14281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -6656,13 +6704,13 @@
         <v>27372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>466</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -6671,13 +6719,13 @@
         <v>41653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6740,13 @@
         <v>86817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="H12" s="7">
         <v>106</v>
@@ -6707,13 +6755,13 @@
         <v>107263</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="M12" s="7">
         <v>192</v>
@@ -6722,13 +6770,13 @@
         <v>194080</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6844,13 @@
         <v>26551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>490</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -6811,13 +6859,13 @@
         <v>41575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -6826,13 +6874,13 @@
         <v>68126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6895,13 @@
         <v>45561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>486</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -6862,13 +6910,13 @@
         <v>53518</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>491</v>
+        <v>139</v>
       </c>
       <c r="M15" s="7">
         <v>91</v>
@@ -6877,13 +6925,13 @@
         <v>99079</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>199</v>
+        <v>501</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6946,13 @@
         <v>72474</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -6913,13 +6961,13 @@
         <v>78976</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>497</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -6928,13 +6976,13 @@
         <v>151449</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,13 +6997,13 @@
         <v>112497</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -6964,13 +7012,13 @@
         <v>168216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="M17" s="7">
         <v>261</v>
@@ -6979,13 +7027,13 @@
         <v>280713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7101,13 @@
         <v>31103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -7068,13 +7116,13 @@
         <v>56427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>516</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -7083,13 +7131,13 @@
         <v>87530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7152,13 @@
         <v>24957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -7119,13 +7167,13 @@
         <v>43122</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -7134,13 +7182,13 @@
         <v>68079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7203,13 @@
         <v>28102</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>528</v>
+        <v>279</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>365</v>
+        <v>535</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -7170,13 +7218,13 @@
         <v>31793</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>530</v>
+        <v>27</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -7185,13 +7233,13 @@
         <v>59895</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7254,13 @@
         <v>82427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -7221,13 +7269,13 @@
         <v>109544</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="M22" s="7">
         <v>178</v>
@@ -7236,13 +7284,13 @@
         <v>191971</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,7 +7346,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7310,13 +7358,13 @@
         <v>25728</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>550</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -7325,13 +7373,13 @@
         <v>47929</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -7340,13 +7388,13 @@
         <v>73656</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>550</v>
+        <v>371</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7409,13 @@
         <v>40992</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -7376,13 +7424,13 @@
         <v>61757</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M25" s="7">
         <v>97</v>
@@ -7391,13 +7439,13 @@
         <v>102749</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>333</v>
+        <v>563</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>102</v>
+        <v>564</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7460,13 @@
         <v>37497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -7427,13 +7475,13 @@
         <v>47962</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -7442,13 +7490,13 @@
         <v>85459</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>572</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,13 +7511,13 @@
         <v>108215</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="H27" s="7">
         <v>126</v>
@@ -7478,13 +7526,13 @@
         <v>139479</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="M27" s="7">
         <v>234</v>
@@ -7493,13 +7541,13 @@
         <v>247694</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>150</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7615,13 @@
         <v>106963</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>574</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>584</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -7582,13 +7630,13 @@
         <v>180367</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>369</v>
+        <v>586</v>
       </c>
       <c r="M29" s="7">
         <v>263</v>
@@ -7597,13 +7645,13 @@
         <v>287330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7666,13 @@
         <v>134938</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>580</v>
+        <v>404</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="H30" s="7">
         <v>177</v>
@@ -7633,13 +7681,13 @@
         <v>188979</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>339</v>
+        <v>90</v>
       </c>
       <c r="M30" s="7">
         <v>303</v>
@@ -7648,13 +7696,13 @@
         <v>323916</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>585</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7717,13 @@
         <v>154145</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="H31" s="7">
         <v>171</v>
@@ -7684,13 +7732,13 @@
         <v>187770</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M31" s="7">
         <v>319</v>
@@ -7699,13 +7747,13 @@
         <v>341914</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>311</v>
+        <v>598</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7768,13 @@
         <v>420212</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="H32" s="7">
         <v>513</v>
@@ -7735,13 +7783,13 @@
         <v>550021</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="M32" s="7">
         <v>919</v>
@@ -7750,13 +7798,13 @@
         <v>970233</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,7 +7860,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7833,7 +7881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6030193A-99EF-4D87-9D19-BFE0B653ED8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E907469-1248-486E-8F22-49A6CFB93E52}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7850,7 +7898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7957,13 +8005,13 @@
         <v>2418</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -7972,13 +8020,13 @@
         <v>3870</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7987,13 +8035,13 @@
         <v>6289</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +8056,13 @@
         <v>4200</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -8023,13 +8071,13 @@
         <v>7484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -8038,13 +8086,13 @@
         <v>11684</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>623</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8107,13 @@
         <v>3220</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -8074,13 +8122,13 @@
         <v>3660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -8089,13 +8137,13 @@
         <v>6879</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>624</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8158,13 @@
         <v>7671</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -8125,13 +8173,13 @@
         <v>10406</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -8140,13 +8188,13 @@
         <v>18077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8262,13 @@
         <v>18235</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -8229,13 +8277,13 @@
         <v>34140</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -8244,13 +8292,13 @@
         <v>52375</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>69</v>
+        <v>647</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8313,13 @@
         <v>35033</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -8280,13 +8328,13 @@
         <v>48463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>644</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -8295,13 +8343,13 @@
         <v>83496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8364,13 @@
         <v>9414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -8331,13 +8379,13 @@
         <v>12294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>660</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -8346,13 +8394,13 @@
         <v>21708</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>654</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8415,13 @@
         <v>32640</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>140</v>
+        <v>663</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="H12" s="7">
         <v>76</v>
@@ -8382,13 +8430,13 @@
         <v>47223</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="M12" s="7">
         <v>115</v>
@@ -8397,13 +8445,13 @@
         <v>79862</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,13 +8519,13 @@
         <v>49204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>664</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>466</v>
+        <v>671</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -8486,13 +8534,13 @@
         <v>81629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -8501,13 +8549,13 @@
         <v>130832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,13 +8570,13 @@
         <v>62634</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="H15" s="7">
         <v>95</v>
@@ -8537,13 +8585,13 @@
         <v>64318</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -8552,13 +8600,13 @@
         <v>126952</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,13 +8621,13 @@
         <v>8946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -8588,13 +8636,13 @@
         <v>18435</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>27</v>
+        <v>553</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -8603,13 +8651,13 @@
         <v>27381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8624,13 +8672,13 @@
         <v>61476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="H17" s="7">
         <v>86</v>
@@ -8639,13 +8687,13 @@
         <v>60941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>501</v>
+        <v>699</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="M17" s="7">
         <v>143</v>
@@ -8654,13 +8702,13 @@
         <v>122417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8776,13 @@
         <v>59706</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="H19" s="7">
         <v>98</v>
@@ -8743,13 +8791,13 @@
         <v>68129</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -8758,13 +8806,13 @@
         <v>127835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8827,13 @@
         <v>38579</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -8794,13 +8842,13 @@
         <v>41180</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="M20" s="7">
         <v>100</v>
@@ -8809,13 +8857,13 @@
         <v>79759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>720</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8830,13 +8878,13 @@
         <v>5626</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -8845,13 +8893,13 @@
         <v>10403</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>717</v>
+        <v>449</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -8860,13 +8908,13 @@
         <v>16029</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>720</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8881,13 +8929,13 @@
         <v>24603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -8896,13 +8944,13 @@
         <v>36484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -8911,13 +8959,13 @@
         <v>61087</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8973,7 +9021,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8985,13 +9033,13 @@
         <v>80429</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -9000,13 +9048,13 @@
         <v>143004</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="M24" s="7">
         <v>285</v>
@@ -9015,13 +9063,13 @@
         <v>223433</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,13 +9084,13 @@
         <v>69051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -9051,13 +9099,13 @@
         <v>113668</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="M25" s="7">
         <v>220</v>
@@ -9066,13 +9114,13 @@
         <v>182719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,13 +9135,13 @@
         <v>5719</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>755</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -9102,13 +9150,13 @@
         <v>22690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>757</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>759</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -9117,13 +9165,13 @@
         <v>28409</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>59</v>
+        <v>760</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9138,13 +9186,13 @@
         <v>53696</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>514</v>
+        <v>762</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="H27" s="7">
         <v>59</v>
@@ -9153,13 +9201,13 @@
         <v>45437</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
@@ -9168,13 +9216,13 @@
         <v>99132</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>108</v>
+        <v>766</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9242,13 +9290,13 @@
         <v>209991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="H29" s="7">
         <v>478</v>
@@ -9257,13 +9305,13 @@
         <v>330773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="M29" s="7">
         <v>702</v>
@@ -9272,13 +9320,13 @@
         <v>540764</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9293,13 +9341,13 @@
         <v>209496</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="H30" s="7">
         <v>397</v>
@@ -9308,13 +9356,13 @@
         <v>275113</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="M30" s="7">
         <v>624</v>
@@ -9323,13 +9371,13 @@
         <v>484609</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9344,13 +9392,13 @@
         <v>32924</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>263</v>
+        <v>788</v>
       </c>
       <c r="H31" s="7">
         <v>105</v>
@@ -9359,13 +9407,13 @@
         <v>67482</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="M31" s="7">
         <v>143</v>
@@ -9374,13 +9422,13 @@
         <v>100406</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9395,13 +9443,13 @@
         <v>180085</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="H32" s="7">
         <v>292</v>
@@ -9410,13 +9458,13 @@
         <v>200490</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>333</v>
+        <v>563</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>303</v>
+        <v>798</v>
       </c>
       <c r="M32" s="7">
         <v>478</v>
@@ -9425,13 +9473,13 @@
         <v>380575</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9487,7 +9535,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q17F_D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{730FE585-659C-49B0-BF05-10D6F59A9349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C14CFDE-8E71-4511-939F-D4B5559BDB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1182918C-2423-427F-98F0-07BC09E6239B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD499F81-5D9E-4439-8AAF-9464D8377C80}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="802">
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2007 (Tasa respuesta: 23,85%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="806">
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles (base 2023) en 2007 (Tasa respuesta: 23,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,10 +77,10 @@
     <t>15,35%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>3,76%</t>
@@ -89,2362 +89,2374 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,36%</t>
+    <t>12,91%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>Cuartil III</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>Cuartil II</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>Cuartil I</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles (base 2023) en 2012 (Tasa respuesta: 26,39%)</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles (base 2023) en 2016 (Tasa respuesta: 27,46%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles (base 2023) en 2023 (Tasa respuesta: 22,27%)</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>Cuartil III</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>Cuartil II</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>Cuartil I</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2012 (Tasa respuesta: 26,39%)</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2016 (Tasa respuesta: 27,46%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo de espera en días hasta la consulta en el centro sanitario, en cuartiles en 2023 (Tasa respuesta: 22,27%)</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
 </sst>
 </file>
@@ -2856,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA71CC4-D622-4D7E-A560-0856F3E4AEA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1174ED5-ED3B-4B8A-811A-B71E546E3005}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3375,7 +3387,7 @@
         <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3402,13 @@
         <v>58609</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>81</v>
@@ -3405,13 +3417,13 @@
         <v>81301</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>142</v>
@@ -3420,13 +3432,13 @@
         <v>139910</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,7 +3494,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3494,13 +3506,13 @@
         <v>19254</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -3509,13 +3521,13 @@
         <v>41709</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -3524,10 +3536,10 @@
         <v>60963</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>93</v>
@@ -3802,13 +3814,13 @@
         <v>23264</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -3817,13 +3829,13 @@
         <v>31150</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -3832,13 +3844,13 @@
         <v>54414</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3865,13 @@
         <v>21555</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -3868,13 +3880,13 @@
         <v>27390</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -3883,13 +3895,13 @@
         <v>48944</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3916,13 @@
         <v>58411</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -3919,13 +3931,13 @@
         <v>102469</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>159</v>
@@ -3934,13 +3946,13 @@
         <v>160880</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +4008,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4008,13 +4020,13 @@
         <v>32184</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -4023,13 +4035,13 @@
         <v>49658</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -4038,13 +4050,13 @@
         <v>81843</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4071,13 @@
         <v>27990</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -4074,13 +4086,13 @@
         <v>37667</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -4089,13 +4101,13 @@
         <v>65658</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4122,13 @@
         <v>26243</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -4125,13 +4137,13 @@
         <v>49958</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -4140,13 +4152,13 @@
         <v>76201</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4173,13 @@
         <v>97438</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>160</v>
@@ -4176,13 +4188,13 @@
         <v>167337</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>268</v>
@@ -4191,13 +4203,13 @@
         <v>264775</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,16 +4274,16 @@
         <v>103</v>
       </c>
       <c r="D29" s="7">
-        <v>100900</v>
+        <v>100901</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>135</v>
@@ -4280,13 +4292,13 @@
         <v>141973</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>238</v>
@@ -4295,13 +4307,13 @@
         <v>242873</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4328,13 @@
         <v>81928</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>130</v>
@@ -4331,13 +4343,13 @@
         <v>131866</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
@@ -4346,13 +4358,13 @@
         <v>213794</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4379,13 @@
         <v>84634</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>147</v>
@@ -4382,13 +4394,13 @@
         <v>150842</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>229</v>
@@ -4397,13 +4409,13 @@
         <v>235476</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4430,13 @@
         <v>337621</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>533</v>
@@ -4433,13 +4445,13 @@
         <v>543602</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="M32" s="7">
         <v>873</v>
@@ -4466,7 +4478,7 @@
         <v>608</v>
       </c>
       <c r="D33" s="7">
-        <v>605083</v>
+        <v>605084</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>47</v>
@@ -4531,7 +4543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D9C1E2-C40E-4858-B0D9-7BD1EABA594E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605D98B7-BFFB-420E-BB3E-A70072F3C872}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4706,7 +4718,7 @@
         <v>2728</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
@@ -4927,13 +4939,13 @@
         <v>20633</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -4942,13 +4954,13 @@
         <v>39980</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4975,13 @@
         <v>10069</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4978,13 +4990,13 @@
         <v>13110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4993,13 +5005,13 @@
         <v>23179</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5026,13 @@
         <v>16583</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -5029,13 +5041,13 @@
         <v>13292</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -5044,13 +5056,13 @@
         <v>29875</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5077,13 @@
         <v>102780</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H12" s="7">
         <v>132</v>
@@ -5080,13 +5092,13 @@
         <v>139966</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>224</v>
@@ -5095,13 +5107,13 @@
         <v>242746</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,7 +5169,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5169,13 +5181,13 @@
         <v>34570</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5184,13 +5196,13 @@
         <v>46165</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5199,13 +5211,13 @@
         <v>80735</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5232,13 @@
         <v>39394</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -5235,13 +5247,13 @@
         <v>72008</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M15" s="7">
         <v>99</v>
@@ -5250,13 +5262,13 @@
         <v>111402</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5283,13 @@
         <v>29219</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -5286,13 +5298,13 @@
         <v>44948</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5304,10 +5316,10 @@
         <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5334,13 @@
         <v>119019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>172</v>
@@ -5337,13 +5349,13 @@
         <v>185269</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>280</v>
@@ -5352,13 +5364,13 @@
         <v>304288</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5438,13 @@
         <v>25755</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>331</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -5441,13 +5453,13 @@
         <v>31053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -5456,13 +5468,13 @@
         <v>56808</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5489,13 @@
         <v>23808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -5492,13 +5504,13 @@
         <v>56233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -5507,13 +5519,13 @@
         <v>80041</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>70</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5540,13 @@
         <v>27013</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -5543,13 +5555,13 @@
         <v>40993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -5558,13 +5570,13 @@
         <v>68005</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5591,13 @@
         <v>87747</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -5594,13 +5606,13 @@
         <v>82914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
         <v>155</v>
@@ -5609,13 +5621,13 @@
         <v>170660</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,7 +5683,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5683,13 +5695,13 @@
         <v>23821</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -5698,13 +5710,13 @@
         <v>48733</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -5713,13 +5725,13 @@
         <v>72554</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5746,13 @@
         <v>28970</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5749,13 +5761,13 @@
         <v>47350</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>377</v>
+        <v>110</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -5764,13 +5776,13 @@
         <v>76320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5797,13 @@
         <v>23924</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -5800,13 +5812,13 @@
         <v>40361</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
@@ -5815,13 +5827,13 @@
         <v>64286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5848,13 @@
         <v>106967</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H27" s="7">
         <v>176</v>
@@ -5851,13 +5863,13 @@
         <v>189359</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M27" s="7">
         <v>279</v>
@@ -5866,13 +5878,13 @@
         <v>296326</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5952,13 @@
         <v>108419</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H29" s="7">
         <v>144</v>
@@ -5955,13 +5967,13 @@
         <v>150978</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>126</v>
+        <v>397</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M29" s="7">
         <v>245</v>
@@ -5970,13 +5982,13 @@
         <v>259397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6003,13 @@
         <v>104969</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>405</v>
+        <v>52</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>402</v>
       </c>
       <c r="H30" s="7">
         <v>176</v>
@@ -6006,13 +6018,13 @@
         <v>192928</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M30" s="7">
         <v>270</v>
@@ -6021,13 +6033,13 @@
         <v>297896</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6054,13 @@
         <v>97561</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H31" s="7">
         <v>131</v>
@@ -6057,13 +6069,13 @@
         <v>139594</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M31" s="7">
         <v>221</v>
@@ -6072,13 +6084,13 @@
         <v>237154</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6105,13 @@
         <v>435026</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H32" s="7">
         <v>582</v>
@@ -6108,13 +6120,13 @@
         <v>624605</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M32" s="7">
         <v>981</v>
@@ -6123,13 +6135,13 @@
         <v>1059630</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,7 +6218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70862BD6-E1CA-4631-B10F-DD6677E21B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E1469C-5C31-43C7-B091-9A4C7F0995B8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6223,7 +6235,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6330,13 +6342,13 @@
         <v>2686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6345,13 +6357,13 @@
         <v>3433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>428</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6360,13 +6372,13 @@
         <v>6119</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>435</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6393,13 @@
         <v>2797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6396,13 +6408,13 @@
         <v>3436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>74</v>
+        <v>435</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6411,13 +6423,13 @@
         <v>6233</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6444,13 @@
         <v>1791</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6447,13 +6459,13 @@
         <v>1667</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6462,13 +6474,13 @@
         <v>3457</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6495,13 @@
         <v>30256</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -6498,13 +6510,13 @@
         <v>25520</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -6513,13 +6525,13 @@
         <v>55775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6599,13 @@
         <v>20896</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -6602,13 +6614,13 @@
         <v>31003</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M9" s="7">
         <v>50</v>
@@ -6617,13 +6629,13 @@
         <v>51899</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6650,13 @@
         <v>20630</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -6653,13 +6665,13 @@
         <v>27146</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -6668,13 +6680,13 @@
         <v>47776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,7 +6722,7 @@
         <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>477</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -6719,13 +6731,13 @@
         <v>41653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6752,13 @@
         <v>86817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H12" s="7">
         <v>106</v>
@@ -6755,13 +6767,13 @@
         <v>107263</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M12" s="7">
         <v>192</v>
@@ -6770,13 +6782,13 @@
         <v>194080</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6844,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6844,10 +6856,10 @@
         <v>26551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>491</v>
@@ -6862,10 +6874,10 @@
         <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -6874,13 +6886,13 @@
         <v>68126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>494</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>495</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6907,13 @@
         <v>45561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>496</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -6910,13 +6922,13 @@
         <v>53518</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>139</v>
+        <v>501</v>
       </c>
       <c r="M15" s="7">
         <v>91</v>
@@ -6925,13 +6937,13 @@
         <v>99079</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>501</v>
+        <v>164</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6958,13 @@
         <v>72474</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -6961,13 +6973,13 @@
         <v>78976</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>507</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -6976,13 +6988,13 @@
         <v>151449</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7009,13 @@
         <v>112497</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -7012,13 +7024,13 @@
         <v>168216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M17" s="7">
         <v>261</v>
@@ -7027,13 +7039,13 @@
         <v>280713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7113,13 @@
         <v>31103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>521</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>522</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -7119,10 +7131,10 @@
         <v>523</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>69</v>
+        <v>524</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -7131,13 +7143,13 @@
         <v>87530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7164,13 @@
         <v>24957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -7167,13 +7179,13 @@
         <v>43122</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -7182,13 +7194,13 @@
         <v>68079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7215,13 @@
         <v>28102</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>536</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -7218,13 +7230,13 @@
         <v>31793</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>27</v>
+        <v>539</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -7233,13 +7245,13 @@
         <v>59895</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7266,13 @@
         <v>82427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -7269,13 +7281,13 @@
         <v>109544</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M22" s="7">
         <v>178</v>
@@ -7284,13 +7296,13 @@
         <v>191971</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,7 +7358,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7358,13 +7370,13 @@
         <v>25728</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -7373,13 +7385,13 @@
         <v>47929</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -7388,13 +7400,13 @@
         <v>73656</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>371</v>
+        <v>459</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>556</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7421,13 @@
         <v>40992</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>557</v>
+        <v>469</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -7424,10 +7436,10 @@
         <v>61757</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>560</v>
+        <v>295</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>561</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>562</v>
@@ -7439,13 +7451,13 @@
         <v>102749</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>564</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7472,13 @@
         <v>37497</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -7475,13 +7487,13 @@
         <v>47962</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -7490,13 +7502,13 @@
         <v>85459</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7523,13 @@
         <v>108215</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H27" s="7">
         <v>126</v>
@@ -7526,13 +7538,13 @@
         <v>139479</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="M27" s="7">
         <v>234</v>
@@ -7541,13 +7553,13 @@
         <v>247694</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7627,13 @@
         <v>106963</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -7630,13 +7642,13 @@
         <v>180367</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>493</v>
+        <v>584</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>585</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>586</v>
+        <v>522</v>
       </c>
       <c r="M29" s="7">
         <v>263</v>
@@ -7645,13 +7657,13 @@
         <v>287330</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>588</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7678,13 @@
         <v>134938</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>404</v>
+        <v>588</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="H30" s="7">
         <v>177</v>
@@ -7681,13 +7693,13 @@
         <v>188979</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>90</v>
+        <v>592</v>
       </c>
       <c r="M30" s="7">
         <v>303</v>
@@ -7696,13 +7708,13 @@
         <v>323916</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>66</v>
+        <v>593</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>591</v>
+        <v>365</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7729,13 @@
         <v>154145</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H31" s="7">
         <v>171</v>
@@ -7732,13 +7744,13 @@
         <v>187770</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M31" s="7">
         <v>319</v>
@@ -7747,13 +7759,13 @@
         <v>341914</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7780,13 @@
         <v>420212</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H32" s="7">
         <v>513</v>
@@ -7783,13 +7795,13 @@
         <v>550021</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="M32" s="7">
         <v>919</v>
@@ -7798,13 +7810,13 @@
         <v>970233</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,7 +7893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E907469-1248-486E-8F22-49A6CFB93E52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0904D2D5-36D4-4C33-9191-CB8781D8DCD7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7898,7 +7910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8005,13 +8017,13 @@
         <v>2418</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -8020,13 +8032,13 @@
         <v>3870</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -8035,13 +8047,13 @@
         <v>6289</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8068,13 @@
         <v>4200</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -8071,13 +8083,13 @@
         <v>7484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>532</v>
+        <v>625</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -8086,13 +8098,13 @@
         <v>11684</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8119,13 @@
         <v>3220</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -8122,13 +8134,13 @@
         <v>3660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>631</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -8137,13 +8149,13 @@
         <v>6879</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>634</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8170,13 @@
         <v>7671</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>635</v>
+        <v>469</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -8173,13 +8185,13 @@
         <v>10406</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>419</v>
+        <v>641</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -8188,13 +8200,13 @@
         <v>18077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8274,13 @@
         <v>18235</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>549</v>
+        <v>645</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -8277,13 +8289,13 @@
         <v>34140</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -8292,13 +8304,13 @@
         <v>52375</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>647</v>
+        <v>302</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>648</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8325,13 @@
         <v>35033</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -8328,13 +8340,13 @@
         <v>48463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>505</v>
+        <v>654</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -8343,13 +8355,13 @@
         <v>83496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8376,13 @@
         <v>9414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>388</v>
+        <v>660</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>566</v>
+        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -8379,13 +8391,13 @@
         <v>12294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -8394,13 +8406,13 @@
         <v>21708</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>665</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8427,13 @@
         <v>32640</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>662</v>
+        <v>506</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>664</v>
+        <v>579</v>
       </c>
       <c r="H12" s="7">
         <v>76</v>
@@ -8430,13 +8442,13 @@
         <v>47223</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="M12" s="7">
         <v>115</v>
@@ -8445,13 +8457,13 @@
         <v>79862</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,7 +8519,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8519,13 +8531,13 @@
         <v>49204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>674</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -8534,13 +8546,13 @@
         <v>81629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -8549,13 +8561,13 @@
         <v>130832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>677</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8582,13 @@
         <v>62634</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H15" s="7">
         <v>95</v>
@@ -8585,13 +8597,13 @@
         <v>64318</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>683</v>
+        <v>310</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -8600,13 +8612,13 @@
         <v>126952</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8633,13 @@
         <v>8946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -8636,13 +8648,13 @@
         <v>18435</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>553</v>
+        <v>694</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -8651,13 +8663,13 @@
         <v>27381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>446</v>
+        <v>696</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8684,13 @@
         <v>61476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H17" s="7">
         <v>86</v>
@@ -8687,13 +8699,13 @@
         <v>60941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M17" s="7">
         <v>143</v>
@@ -8702,13 +8714,13 @@
         <v>122417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>702</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,13 +8788,13 @@
         <v>59706</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H19" s="7">
         <v>98</v>
@@ -8791,13 +8803,13 @@
         <v>68129</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -8806,7 +8818,7 @@
         <v>127835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>710</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>711</v>
@@ -8899,7 +8911,7 @@
         <v>726</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>449</v>
+        <v>727</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -8908,13 +8920,13 @@
         <v>16029</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8941,13 @@
         <v>24603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -8944,13 +8956,13 @@
         <v>36484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>57</v>
+        <v>735</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -8959,13 +8971,13 @@
         <v>61087</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9021,7 +9033,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9033,13 +9045,13 @@
         <v>80429</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -9048,13 +9060,13 @@
         <v>143004</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="M24" s="7">
         <v>285</v>
@@ -9063,13 +9075,13 @@
         <v>223433</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,13 +9096,13 @@
         <v>69051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -9099,13 +9111,13 @@
         <v>113668</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M25" s="7">
         <v>220</v>
@@ -9114,13 +9126,13 @@
         <v>182719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>662</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9147,13 @@
         <v>5719</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -9150,13 +9162,13 @@
         <v>22690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -9165,13 +9177,13 @@
         <v>28409</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,13 +9198,13 @@
         <v>53696</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>763</v>
+        <v>367</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H27" s="7">
         <v>59</v>
@@ -9201,13 +9213,13 @@
         <v>45437</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>29</v>
+        <v>428</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
@@ -9216,13 +9228,13 @@
         <v>99132</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9290,13 +9302,13 @@
         <v>209991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H29" s="7">
         <v>478</v>
@@ -9305,13 +9317,13 @@
         <v>330773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>774</v>
+        <v>628</v>
       </c>
       <c r="M29" s="7">
         <v>702</v>
@@ -9320,13 +9332,13 @@
         <v>540764</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,13 +9353,13 @@
         <v>209496</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H30" s="7">
         <v>397</v>
@@ -9356,13 +9368,13 @@
         <v>275113</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M30" s="7">
         <v>624</v>
@@ -9371,13 +9383,13 @@
         <v>484609</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9404,13 @@
         <v>32924</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>726</v>
+        <v>789</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H31" s="7">
         <v>105</v>
@@ -9407,13 +9419,13 @@
         <v>67482</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M31" s="7">
         <v>143</v>
@@ -9422,13 +9434,13 @@
         <v>100406</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>248</v>
+        <v>795</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9455,13 @@
         <v>180085</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="H32" s="7">
         <v>292</v>
@@ -9458,13 +9470,13 @@
         <v>200490</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>563</v>
+        <v>801</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="M32" s="7">
         <v>478</v>
@@ -9473,13 +9485,13 @@
         <v>380575</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q17F_D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 24,15</t>
+          <t>7,13; 23,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,67</t>
+          <t>6,99; 16,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 20,61</t>
+          <t>8,25; 19,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,62; 28,28</t>
+          <t>9,93; 28,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,18</t>
+          <t>3,12; 7,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,98</t>
+          <t>4,52; 11,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 32,06</t>
+          <t>8,96; 36,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,55; 21,93</t>
+          <t>9,91; 24,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 11,47</t>
+          <t>5,39; 12,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 11,58</t>
+          <t>6,34; 11,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 23,36</t>
+          <t>9,77; 23,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 20,47</t>
+          <t>10,56; 21,24</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,68</t>
+          <t>4,24; 12,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 13,12</t>
+          <t>6,46; 13,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 9,35</t>
+          <t>4,43; 9,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,16; 24,16</t>
+          <t>10,2; 25,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 15,28</t>
+          <t>5,96; 15,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,43</t>
+          <t>7,46; 16,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 16,39</t>
+          <t>7,02; 16,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 31,33</t>
+          <t>16,81; 32,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,65</t>
+          <t>5,95; 12,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 13,77</t>
+          <t>7,68; 13,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,56</t>
+          <t>6,6; 12,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 25,27</t>
+          <t>14,53; 24,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 16,45</t>
+          <t>7,92; 15,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 17,92</t>
+          <t>8,33; 18,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 24,77</t>
+          <t>9,65; 24,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 53,3</t>
+          <t>17,12; 49,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 19,9</t>
+          <t>9,39; 21,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 17,75</t>
+          <t>7,2; 18,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 22,08</t>
+          <t>11,61; 22,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 35,16</t>
+          <t>18,88; 35,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 17,23</t>
+          <t>9,68; 16,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 15,54</t>
+          <t>8,61; 15,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 20,54</t>
+          <t>12,16; 20,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,0; 37,52</t>
+          <t>19,82; 37,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 23,09</t>
+          <t>7,53; 26,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 14,09</t>
+          <t>5,82; 13,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 12,25</t>
+          <t>5,41; 12,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,1; 52,2</t>
+          <t>23,41; 51,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 13,12</t>
+          <t>6,56; 13,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 14,15</t>
+          <t>7,34; 14,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 26,88</t>
+          <t>10,12; 25,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 28,15</t>
+          <t>12,69; 27,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 14,9</t>
+          <t>7,82; 14,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,6</t>
+          <t>7,44; 12,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 19,3</t>
+          <t>8,91; 19,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 33,1</t>
+          <t>18,66; 32,82</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 15,04</t>
+          <t>8,2; 14,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,2</t>
+          <t>8,15; 12,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,55</t>
+          <t>8,15; 12,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,26; 31,01</t>
+          <t>19,03; 31,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,53</t>
+          <t>7,54; 11,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,7</t>
+          <t>8,07; 12,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,97; 17,96</t>
+          <t>11,15; 18,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 24,49</t>
+          <t>16,83; 24,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,58</t>
+          <t>8,27; 11,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 11,61</t>
+          <t>8,66; 11,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,25; 14,47</t>
+          <t>10,45; 14,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,53; 25,53</t>
+          <t>18,76; 26,01</t>
         </is>
       </c>
     </row>
